--- a/sergio.xlsx
+++ b/sergio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,13 +437,337 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.501738</v>
+        <v>0.067894</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.352519</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.13098</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.109641</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.115685</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.185116</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.115194</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.085948</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.106466</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.102803</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Key.space</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.111653</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.124719</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.096001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.050022</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.100199</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08018400000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.10178</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.020399</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Key.space</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.079217</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.129916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.123894</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.056031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.088629</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.074866</v>
+      </c>
+      <c r="D13" t="n">
+        <v>38</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.071654</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.131145</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Key.space</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.09617100000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.028779</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.052567</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.175417</v>
+      </c>
+      <c r="D16" t="n">
+        <v>31</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07634299999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.107204</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.09496499999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.071691</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sergio.xlsx
+++ b/sergio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,321 +452,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.067894</v>
+        <v>0.169307</v>
       </c>
       <c r="C2" t="n">
-        <v>2.352519</v>
+        <v>3.091652</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.13098</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.109641</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.115685</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.185116</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.115194</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.085948</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.106466</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.102803</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Key.space</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.111653</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.124719</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.096001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.050022</v>
-      </c>
-      <c r="D8" t="n">
-        <v>22</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.100199</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08018400000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.10178</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.020399</v>
-      </c>
-      <c r="D10" t="n">
-        <v>32</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Key.space</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.079217</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.129916</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.123894</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.056031</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.088629</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.074866</v>
-      </c>
-      <c r="D13" t="n">
-        <v>38</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.071654</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.131145</v>
-      </c>
-      <c r="D14" t="n">
-        <v>32</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Key.space</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.09617100000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.028779</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.052567</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.175417</v>
-      </c>
-      <c r="D16" t="n">
-        <v>31</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.07634299999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.107204</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.09496499999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.071691</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>a</t>
+          <t>['Key.ctrl_l', 'Key.alt_l', '#']</t>
         </is>
       </c>
     </row>
